--- a/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CD69CD-1E8E-4CE3-B272-BBBC49B73250}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{172A2D55-60C7-4DBE-A4D5-52A3D2CF8C35}"/>
   <bookViews>
     <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="47">
   <si>
     <t>Email Address</t>
   </si>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,10 +642,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>40</v>
@@ -666,7 +666,7 @@
         <v>34</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -678,13 +678,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -692,10 +686,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
@@ -716,7 +710,7 @@
         <v>34</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -728,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -736,10 +730,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>40</v>
@@ -760,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -772,7 +766,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -780,10 +774,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>40</v>
@@ -804,7 +798,7 @@
         <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -816,18 +810,24 @@
         <v>20</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>40</v>
@@ -848,7 +848,7 @@
         <v>34</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -860,13 +860,10 @@
         <v>20</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -912,19 +909,19 @@
       <c r="N7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>22</v>
+      <c r="P7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>40</v>
@@ -945,7 +942,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>20</v>
@@ -957,10 +954,13 @@
         <v>20</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1058,53 +1058,62 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5712345574</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="5">
-        <v>19801</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>23</v>
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1244,10 +1253,10 @@
         <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>40</v>
@@ -1268,7 +1277,7 @@
         <v>34</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>20</v>
@@ -1280,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -1385,13 +1394,13 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>40</v>
@@ -1428,6 +1437,9 @@
       </c>
       <c r="R27" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -1473,25 +1485,72 @@
       <c r="N28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="R28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{FF8ED56F-D103-4630-9B98-A2766DA55C07}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{912E83BC-7C78-420A-B9BF-57E03E83BAD4}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{FF8ED56F-D103-4630-9B98-A2766DA55C07}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{912E83BC-7C78-420A-B9BF-57E03E83BAD4}"/>
     <hyperlink ref="A9" r:id="rId3" xr:uid="{72966216-84DC-4511-9C02-05D1018B6BBB}"/>
     <hyperlink ref="A10" r:id="rId4" xr:uid="{940EFE9D-258E-4277-9AF5-F3079173B8BC}"/>
-    <hyperlink ref="A2" r:id="rId5" xr:uid="{4674F4AF-8A5A-45A9-B6F4-4257DF1E8E98}"/>
-    <hyperlink ref="A3:A6" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
-    <hyperlink ref="A25" r:id="rId7" xr:uid="{66C74C89-4C20-4AC9-9EB6-3F5910183E3D}"/>
-    <hyperlink ref="A26" r:id="rId8" xr:uid="{40EABB86-E7AB-4F15-916B-3E847AB7F18A}"/>
-    <hyperlink ref="A27" r:id="rId9" xr:uid="{24D58AE2-BCD9-43AB-9878-234229DB3258}"/>
-    <hyperlink ref="A28" r:id="rId10" xr:uid="{8AD749E3-1D6B-4EBE-AC36-ADEA97767B74}"/>
-    <hyperlink ref="A20" r:id="rId11" xr:uid="{B3329C0B-B967-4D89-859E-03F1CCC6D280}"/>
-    <hyperlink ref="A21:A24" r:id="rId12" display="one@mailinator.com" xr:uid="{5508D66D-CE07-46D3-936D-34C6DE1DA2BE}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{4674F4AF-8A5A-45A9-B6F4-4257DF1E8E98}"/>
+    <hyperlink ref="A2:A8" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
+    <hyperlink ref="A25" r:id="rId7" xr:uid="{86D9B44D-861D-434E-8542-05E2BB8EEE3F}"/>
+    <hyperlink ref="A26" r:id="rId8" xr:uid="{7A43A850-E2B7-4E66-B7E0-A69E9233DE12}"/>
+    <hyperlink ref="A28" r:id="rId9" xr:uid="{61022BC2-FF48-4982-A418-E69F36739FD0}"/>
+    <hyperlink ref="A29" r:id="rId10" xr:uid="{8DA3DBB2-E439-41F4-96DC-02668B004E93}"/>
+    <hyperlink ref="A24" r:id="rId11" xr:uid="{107344B9-86A7-46F9-8965-D0CC6EE97527}"/>
+    <hyperlink ref="A21:A27" r:id="rId12" display="one@mailinator.com" xr:uid="{609C9ABD-E4C5-4652-B2D4-94CD22B566E5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{172A2D55-60C7-4DBE-A4D5-52A3D2CF8C35}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D13D30-9D42-4ED1-9045-8BC3C5814B9D}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="855" windowWidth="20580" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="51">
   <si>
     <t>Email Address</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>five</t>
+  </si>
+  <si>
+    <t>dzmmjswlhuairrwsrl</t>
+  </si>
+  <si>
+    <t>eahuxpcoqyjwkwqaotks</t>
+  </si>
+  <si>
+    <t>4/15/1990</t>
+  </si>
+  <si>
+    <t>yjwt5bvcwkfhep@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -196,12 +208,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -232,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -245,6 +263,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,14 +570,14 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1118,16 +1137,16 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3">
         <v>5712345574</v>
@@ -1162,16 +1181,16 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3">
         <v>5712345574</v>
@@ -1206,16 +1225,16 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3">
         <v>5712345574</v>
@@ -1250,16 +1269,16 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3">
         <v>5712345574</v>
@@ -1300,16 +1319,16 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3">
         <v>5712345574</v>
@@ -1347,16 +1366,16 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E26" s="3">
         <v>5712345574</v>
@@ -1394,16 +1413,16 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E27" s="3">
         <v>5712345574</v>
@@ -1444,16 +1463,16 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3">
         <v>5712345574</v>
@@ -1491,16 +1510,16 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3">
         <v>5712345574</v>
@@ -1545,12 +1564,8 @@
     <hyperlink ref="A10" r:id="rId4" xr:uid="{940EFE9D-258E-4277-9AF5-F3079173B8BC}"/>
     <hyperlink ref="A5" r:id="rId5" xr:uid="{4674F4AF-8A5A-45A9-B6F4-4257DF1E8E98}"/>
     <hyperlink ref="A2:A8" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
-    <hyperlink ref="A25" r:id="rId7" xr:uid="{86D9B44D-861D-434E-8542-05E2BB8EEE3F}"/>
-    <hyperlink ref="A26" r:id="rId8" xr:uid="{7A43A850-E2B7-4E66-B7E0-A69E9233DE12}"/>
-    <hyperlink ref="A28" r:id="rId9" xr:uid="{61022BC2-FF48-4982-A418-E69F36739FD0}"/>
-    <hyperlink ref="A29" r:id="rId10" xr:uid="{8DA3DBB2-E439-41F4-96DC-02668B004E93}"/>
-    <hyperlink ref="A24" r:id="rId11" xr:uid="{107344B9-86A7-46F9-8965-D0CC6EE97527}"/>
-    <hyperlink ref="A21:A27" r:id="rId12" display="one@mailinator.com" xr:uid="{609C9ABD-E4C5-4652-B2D4-94CD22B566E5}"/>
+    <hyperlink ref="A21" r:id="rId7" xr:uid="{77487BAF-1082-43BE-B553-F5C5DCB1CE51}"/>
+    <hyperlink ref="A22:A29" r:id="rId8" display="yjwt5bvcwkfhep@mailinator.com" xr:uid="{A8779242-F081-43A8-8BCB-900908C13671}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D13D30-9D42-4ED1-9045-8BC3C5814B9D}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B215FA2B-CFB6-473E-B89E-D2F556F3DC5C}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="855" windowWidth="20580" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="705" windowWidth="25020" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,16 +163,16 @@
     <t>five</t>
   </si>
   <si>
-    <t>dzmmjswlhuairrwsrl</t>
-  </si>
-  <si>
-    <t>eahuxpcoqyjwkwqaotks</t>
-  </si>
-  <si>
     <t>4/15/1990</t>
   </si>
   <si>
-    <t>yjwt5bvcwkfhep@mailinator.com</t>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>michael.johnson@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,17 +1136,17 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E21" s="3">
         <v>5712345574</v>
@@ -1180,17 +1180,17 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E22" s="3">
         <v>5712345574</v>
@@ -1224,17 +1224,17 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E23" s="3">
         <v>5712345574</v>
@@ -1268,17 +1268,17 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E24" s="3">
         <v>5712345574</v>
@@ -1318,17 +1318,17 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E25" s="3">
         <v>5712345574</v>
@@ -1365,17 +1365,17 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E26" s="3">
         <v>5712345574</v>
@@ -1412,17 +1412,17 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E27" s="3">
         <v>5712345574</v>
@@ -1462,17 +1462,17 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E28" s="3">
         <v>5712345574</v>
@@ -1509,17 +1509,17 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E29" s="3">
         <v>5712345574</v>
@@ -1564,8 +1564,6 @@
     <hyperlink ref="A10" r:id="rId4" xr:uid="{940EFE9D-258E-4277-9AF5-F3079173B8BC}"/>
     <hyperlink ref="A5" r:id="rId5" xr:uid="{4674F4AF-8A5A-45A9-B6F4-4257DF1E8E98}"/>
     <hyperlink ref="A2:A8" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
-    <hyperlink ref="A21" r:id="rId7" xr:uid="{77487BAF-1082-43BE-B553-F5C5DCB1CE51}"/>
-    <hyperlink ref="A22:A29" r:id="rId8" display="yjwt5bvcwkfhep@mailinator.com" xr:uid="{A8779242-F081-43A8-8BCB-900908C13671}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B215FA2B-CFB6-473E-B89E-D2F556F3DC5C}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E8C5C00-C29A-42F2-A8BD-827226FB5B50}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="705" windowWidth="25020" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9615" yWindow="945" windowWidth="30690" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="41">
   <si>
     <t>Email Address</t>
   </si>
@@ -112,15 +112,6 @@
     <t>Educator data (if any)</t>
   </si>
   <si>
-    <t>isabella.davis@mailinator.com</t>
-  </si>
-  <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
     <t>Delaware</t>
   </si>
   <si>
@@ -140,27 +131,6 @@
   </si>
   <si>
     <t>1249 Market Street, Apt 7B</t>
-  </si>
-  <si>
-    <t>4/15/2005</t>
-  </si>
-  <si>
-    <t>one@mailinator.com</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>five</t>
   </si>
   <si>
     <t>4/15/1990</t>
@@ -179,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,14 +162,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -246,11 +208,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -259,14 +220,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -567,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +541,7 @@
     <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -657,17 +616,17 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>41</v>
+      <c r="A2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3">
         <v>5712345574</v>
@@ -676,16 +635,16 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4">
+        <v>19801</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" s="5">
-        <v>19801</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -701,17 +660,17 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>41</v>
+      <c r="A3" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
         <v>5712345574</v>
@@ -720,16 +679,16 @@
         <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="5">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4">
         <v>19801</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -745,17 +704,17 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
+      <c r="A4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3">
         <v>5712345574</v>
@@ -764,16 +723,16 @@
         <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="5">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4">
         <v>19801</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -789,17 +748,17 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>41</v>
+      <c r="A5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3">
         <v>5712345574</v>
@@ -808,16 +767,16 @@
         <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4">
         <v>19801</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -839,17 +798,17 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
+      <c r="A6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3">
         <v>5712345574</v>
@@ -858,16 +817,16 @@
         <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="5">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4">
         <v>19801</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -886,17 +845,17 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
+      <c r="A7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3">
         <v>5712345574</v>
@@ -905,16 +864,16 @@
         <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="5">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4">
         <v>19801</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -933,17 +892,17 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
+      <c r="A8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
         <v>5712345574</v>
@@ -952,16 +911,16 @@
         <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="5">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4">
         <v>19801</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>20</v>
@@ -983,17 +942,17 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
+      <c r="A9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
         <v>5712345574</v>
@@ -1002,16 +961,16 @@
         <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="5">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4">
         <v>19801</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>20</v>
@@ -1030,17 +989,17 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
+      <c r="A10" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3">
         <v>5712345574</v>
@@ -1049,16 +1008,16 @@
         <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="5">
+        <v>30</v>
+      </c>
+      <c r="H10" s="4">
         <v>19801</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>20</v>
@@ -1137,16 +1096,16 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E21" s="3">
         <v>5712345574</v>
@@ -1155,13 +1114,13 @@
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="5">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4">
         <v>19801</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>36</v>
@@ -1176,21 +1135,27 @@
         <v>20</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E22" s="3">
         <v>5712345574</v>
@@ -1199,16 +1164,16 @@
         <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="5">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4">
         <v>19801</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>20</v>
@@ -1220,21 +1185,24 @@
         <v>20</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E23" s="3">
         <v>5712345574</v>
@@ -1243,16 +1211,16 @@
         <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="5">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4">
         <v>19801</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>20</v>
@@ -1264,307 +1232,14 @@
         <v>20</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5712345574</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="5">
-        <v>19801</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5712345574</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="5">
-        <v>19801</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5712345574</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="5">
-        <v>19801</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5712345574</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="5">
-        <v>19801</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5712345574</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="5">
-        <v>19801</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="3">
-        <v>5712345574</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="5">
-        <v>19801</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{FF8ED56F-D103-4630-9B98-A2766DA55C07}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{912E83BC-7C78-420A-B9BF-57E03E83BAD4}"/>
-    <hyperlink ref="A9" r:id="rId3" xr:uid="{72966216-84DC-4511-9C02-05D1018B6BBB}"/>
-    <hyperlink ref="A10" r:id="rId4" xr:uid="{940EFE9D-258E-4277-9AF5-F3079173B8BC}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{4674F4AF-8A5A-45A9-B6F4-4257DF1E8E98}"/>
-    <hyperlink ref="A2:A8" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E8C5C00-C29A-42F2-A8BD-827226FB5B50}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C57361B-1E69-4872-B752-04F130DEBD86}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="945" windowWidth="30690" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="23130" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="42">
   <si>
     <t>Email Address</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>michael.johnson@mailinator.com</t>
+  </si>
+  <si>
+    <t>Educator account (if any)</t>
   </si>
 </sst>
 </file>
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1144,7 @@
         <v>28</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1235,11 +1238,12 @@
         <v>27</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/Domestic_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C57361B-1E69-4872-B752-04F130DEBD86}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D57093B-7ECF-4AD0-8D1F-B772B14B3AC2}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="23130" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="975" windowWidth="31650" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="51">
   <si>
     <t>Email Address</t>
   </si>
@@ -146,13 +146,40 @@
   </si>
   <si>
     <t>Educator account (if any)</t>
+  </si>
+  <si>
+    <t>wzfxo3yjcj79ge@mailinator.com</t>
+  </si>
+  <si>
+    <t>Sqkreufftcukwnypbd</t>
+  </si>
+  <si>
+    <t>Vqfdlfwqfmaeqmnlwlsn</t>
+  </si>
+  <si>
+    <t>cocl7u5vjmvikw@mailinator.com</t>
+  </si>
+  <si>
+    <t>Oleceyrnkjbrfvicte</t>
+  </si>
+  <si>
+    <t>Ppbfuvkmgmapqdjwcbzk</t>
+  </si>
+  <si>
+    <t>okds14xvdiiwfz@mailinator.com</t>
+  </si>
+  <si>
+    <t>Pxbrljaxffmpfajulg</t>
+  </si>
+  <si>
+    <t>Nxpypaglxbsfnqfyafoz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +195,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,10 +246,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -226,9 +262,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +663,7 @@
       <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -669,7 +707,7 @@
       <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -713,7 +751,7 @@
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -757,7 +795,7 @@
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -807,7 +845,7 @@
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -854,7 +892,7 @@
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -901,7 +939,7 @@
       <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -951,7 +989,7 @@
       <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -998,7 +1036,7 @@
       <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1099,13 +1137,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>37</v>
@@ -1149,13 +1187,13 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>37</v>
@@ -1196,13 +1234,13 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>37</v>
@@ -1240,6 +1278,9 @@
       <c r="S23" s="3" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
